--- a/Informatics/Lab5/lab5.xlsx
+++ b/Informatics/Lab5/lab5.xlsx
@@ -1,51 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RofleX\DATA\ITMO-Labs\Informatics\Lab5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B54CDF3-CA2F-463B-9D62-1FF98259CAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6DD79199-0886-455F-89B4-1DA599C9EDDF}"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
+    <t>Task 2-3</t>
+  </si>
+  <si>
+    <t>Task 4-6</t>
+  </si>
+  <si>
+    <t>Task 7-11</t>
+  </si>
+  <si>
+    <t>Task 12</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
     <t>A=</t>
+  </si>
+  <si>
+    <t>Д</t>
   </si>
   <si>
     <t>C=</t>
   </si>
   <si>
+    <t>З</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>bin to dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пояснение </t>
+  </si>
+  <si>
     <t>X1=</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>X2=</t>
@@ -81,78 +112,186 @@
     <t>X12=</t>
   </si>
   <si>
-    <t>Task 2-3</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
     <t xml:space="preserve">ОДЗ: [-32768; 32767] </t>
-  </si>
-  <si>
-    <t>О</t>
-  </si>
-  <si>
-    <t>Д</t>
-  </si>
-  <si>
-    <t>З</t>
-  </si>
-  <si>
-    <t>Task 4-6</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>ZF</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>calc</t>
-  </si>
-  <si>
-    <t>bin to dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пояснение </t>
-  </si>
-  <si>
-    <t>Task 7-11</t>
-  </si>
-  <si>
-    <t>Task 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,7 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,13 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,8 +328,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,138 +523,339 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="40% — Акцент6" xfId="1" builtinId="51"/>
+    <cellStyle name="Акцент4" xfId="2" builtinId="41"/>
+    <cellStyle name="20% — Акцент6" xfId="3" builtinId="50"/>
+    <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
+    <cellStyle name="40% — Акцент5" xfId="5" builtinId="47"/>
+    <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
+    <cellStyle name="20% — Акцент5" xfId="7" builtinId="46"/>
+    <cellStyle name="Акцент2" xfId="8" builtinId="33"/>
+    <cellStyle name="20% — Акцент4" xfId="9" builtinId="42"/>
+    <cellStyle name="Заголовок 2" xfId="10" builtinId="17"/>
+    <cellStyle name="60% — Акцент3" xfId="11" builtinId="40"/>
+    <cellStyle name="Акцент1" xfId="12" builtinId="29"/>
+    <cellStyle name="20% — Акцент3" xfId="13" builtinId="38"/>
+    <cellStyle name="Заголовок 1" xfId="14" builtinId="16"/>
+    <cellStyle name="Денежный" xfId="15" builtinId="4"/>
+    <cellStyle name="60% — Акцент2" xfId="16" builtinId="36"/>
+    <cellStyle name="Ввод" xfId="17" builtinId="20"/>
+    <cellStyle name="Акцент6" xfId="18" builtinId="49"/>
+    <cellStyle name="Процент" xfId="19" builtinId="5"/>
+    <cellStyle name="40% — Акцент2" xfId="20" builtinId="35"/>
+    <cellStyle name="20% — Акцент2" xfId="21" builtinId="34"/>
+    <cellStyle name="Запятая" xfId="22" builtinId="3"/>
+    <cellStyle name="Акцент5" xfId="23" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="40% — Акцент1" xfId="25" builtinId="31"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="27" builtinId="9"/>
+    <cellStyle name="Связанная ячейка" xfId="28" builtinId="24"/>
+    <cellStyle name="Проверить ячейку" xfId="29" builtinId="23"/>
+    <cellStyle name="60% — Акцент5" xfId="30" builtinId="48"/>
+    <cellStyle name="Заголовок 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Заголовок 3" xfId="32" builtinId="18"/>
+    <cellStyle name="60% — Акцент4" xfId="33" builtinId="44"/>
+    <cellStyle name="Плохой" xfId="34" builtinId="27"/>
+    <cellStyle name="Вычисление" xfId="35" builtinId="22"/>
+    <cellStyle name="60% — Акцент6" xfId="36" builtinId="52"/>
+    <cellStyle name="Денежный [0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Пояснительный текст" xfId="38" builtinId="53"/>
+    <cellStyle name="40% — Акцент3" xfId="39" builtinId="39"/>
+    <cellStyle name="Заголовок" xfId="40" builtinId="15"/>
+    <cellStyle name="Запятая [0]" xfId="41" builtinId="6"/>
+    <cellStyle name="Итого" xfId="42" builtinId="25"/>
+    <cellStyle name="Предупреждающий текст" xfId="43" builtinId="11"/>
+    <cellStyle name="Примечание" xfId="44" builtinId="10"/>
+    <cellStyle name="60% — Акцент1" xfId="45" builtinId="32"/>
+    <cellStyle name="Хороший" xfId="46" builtinId="26"/>
+    <cellStyle name="40% — Акцент4" xfId="47" builtinId="43"/>
+    <cellStyle name="Вывод" xfId="48" builtinId="21"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="4">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -338,9 +864,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,7 +912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -422,26 +945,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -474,23 +980,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -652,394 +1141,389 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B892CB-B2BE-4C08-BC58-C3253D9DFE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:CM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="CD21" sqref="CD21"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="CK16" sqref="CK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="20" width="0.28515625" customWidth="1"/>
-    <col min="21" max="21" width="1.42578125" customWidth="1"/>
-    <col min="22" max="38" width="1.7109375" customWidth="1"/>
-    <col min="39" max="39" width="1.5703125" customWidth="1"/>
-    <col min="40" max="40" width="2.140625" customWidth="1"/>
-    <col min="41" max="41" width="2.85546875" customWidth="1"/>
-    <col min="42" max="42" width="1.7109375" customWidth="1"/>
-    <col min="43" max="44" width="1.85546875" customWidth="1"/>
-    <col min="45" max="61" width="0.28515625" customWidth="1"/>
-    <col min="62" max="62" width="1.140625" customWidth="1"/>
-    <col min="63" max="78" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="1.85714285714286" customWidth="1"/>
+    <col min="5" max="20" width="0.285714285714286" customWidth="1"/>
+    <col min="21" max="21" width="1.42857142857143" customWidth="1"/>
+    <col min="22" max="38" width="1.71428571428571" customWidth="1"/>
+    <col min="39" max="39" width="1.57142857142857" customWidth="1"/>
+    <col min="40" max="40" width="2.14285714285714" customWidth="1"/>
+    <col min="41" max="41" width="2.85714285714286" customWidth="1"/>
+    <col min="42" max="42" width="1.71428571428571" customWidth="1"/>
+    <col min="43" max="44" width="1.85714285714286" customWidth="1"/>
+    <col min="45" max="61" width="0.285714285714286" customWidth="1"/>
+    <col min="62" max="62" width="1.14285714285714" customWidth="1"/>
+    <col min="63" max="78" width="1.71428571428571" customWidth="1"/>
     <col min="79" max="79" width="2" customWidth="1"/>
     <col min="80" max="85" width="3" customWidth="1"/>
     <col min="86" max="86" width="2" customWidth="1"/>
-    <col min="87" max="87" width="7.5703125" customWidth="1"/>
-    <col min="88" max="88" width="2.42578125" customWidth="1"/>
-    <col min="89" max="89" width="8.7109375" customWidth="1"/>
+    <col min="87" max="87" width="7.57142857142857" customWidth="1"/>
+    <col min="88" max="88" width="2.42857142857143" customWidth="1"/>
+    <col min="89" max="89" width="8.71428571428571" customWidth="1"/>
     <col min="90" max="90" width="3" customWidth="1"/>
-    <col min="91" max="91" width="82.85546875" customWidth="1"/>
+    <col min="91" max="91" width="82.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="AN2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
+    <row r="2" spans="2:43">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="AN2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
     </row>
-    <row r="3" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="AB3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AL3" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="28:38">
+      <c r="AB3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AL3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>10299</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>18</v>
+      <c r="AL4" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:91">
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>21882</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <f>E5-1</f>
         <v>14</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:T5" si="0">F5-1</f>
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S5" s="1">
-        <f>R5-1</f>
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
         <v>5</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="4">
         <v>4</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="4">
         <v>3</v>
       </c>
-      <c r="Y5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="Y5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
         <v>9</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="4">
         <f t="shared" ref="AC5:AK5" si="1">AB5-1</f>
         <v>8</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ5" s="1">
-        <f>AI5-1</f>
-        <v>1</v>
-      </c>
-      <c r="AK5" s="1">
+      <c r="AJ5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="4">
         <v>5</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AU5" s="4">
         <v>4</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AV5" s="4">
         <v>3</v>
       </c>
-      <c r="AW5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1">
+      <c r="AW5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="4">
         <v>9</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BA5" s="4">
         <f t="shared" ref="BA5" si="2">AZ5-1</f>
         <v>8</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BB5" s="4">
         <f t="shared" ref="BB5" si="3">BA5-1</f>
         <v>7</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BC5" s="4">
         <f t="shared" ref="BC5" si="4">BB5-1</f>
         <v>6</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BD5" s="4">
         <f t="shared" ref="BD5" si="5">BC5-1</f>
         <v>5</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="BE5" s="4">
         <f t="shared" ref="BE5" si="6">BD5-1</f>
         <v>4</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BF5" s="4">
         <f t="shared" ref="BF5" si="7">BE5-1</f>
         <v>3</v>
       </c>
-      <c r="BG5" s="1">
-        <f t="shared" ref="BG5" si="8">BF5-1</f>
-        <v>2</v>
-      </c>
-      <c r="BH5" s="1">
-        <f>BG5-1</f>
-        <v>1</v>
-      </c>
-      <c r="BI5" s="1">
+      <c r="BG5" s="4">
+        <f t="shared" ref="BG5:BH5" si="8">BF5-1</f>
+        <v>2</v>
+      </c>
+      <c r="BH5" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BI5" s="4">
         <f t="shared" ref="BI5" si="9">BH5-1</f>
         <v>0</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BK5" s="4">
         <v>5</v>
       </c>
-      <c r="BL5" s="1">
+      <c r="BL5" s="4">
         <v>4</v>
       </c>
-      <c r="BM5" s="1">
+      <c r="BM5" s="4">
         <v>3</v>
       </c>
-      <c r="BN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
+      <c r="BN5" s="4">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="4">
         <v>9</v>
       </c>
-      <c r="BR5" s="1">
+      <c r="BR5" s="4">
         <f t="shared" ref="BR5" si="10">BQ5-1</f>
         <v>8</v>
       </c>
-      <c r="BS5" s="1">
+      <c r="BS5" s="4">
         <f t="shared" ref="BS5" si="11">BR5-1</f>
         <v>7</v>
       </c>
-      <c r="BT5" s="1">
+      <c r="BT5" s="4">
         <f t="shared" ref="BT5" si="12">BS5-1</f>
         <v>6</v>
       </c>
-      <c r="BU5" s="1">
+      <c r="BU5" s="4">
         <f t="shared" ref="BU5" si="13">BT5-1</f>
         <v>5</v>
       </c>
-      <c r="BV5" s="1">
+      <c r="BV5" s="4">
         <f t="shared" ref="BV5" si="14">BU5-1</f>
         <v>4</v>
       </c>
-      <c r="BW5" s="1">
+      <c r="BW5" s="4">
         <f t="shared" ref="BW5" si="15">BV5-1</f>
         <v>3</v>
       </c>
-      <c r="BX5" s="1">
-        <f t="shared" ref="BX5" si="16">BW5-1</f>
-        <v>2</v>
-      </c>
-      <c r="BY5" s="1">
-        <f>BX5-1</f>
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="1">
+      <c r="BX5" s="4">
+        <f t="shared" ref="BX5:BY5" si="16">BW5-1</f>
+        <v>2</v>
+      </c>
+      <c r="BY5" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="4">
         <f t="shared" ref="BZ5" si="17">BY5-1</f>
         <v>0</v>
       </c>
-      <c r="CB5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>27</v>
+      <c r="CB5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="CI5" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CK5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="CM5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:91">
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
         <f>C4</f>
         <v>10299</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5">
         <f>IF(C7&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <f>MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7), POWER(2, -COLUMN(F4)+6+15))/POWER(2, -COLUMN(F4)+6+14), 0),2)+IF($C7&lt;0,IF(G7=2,1,0),0)</f>
+        <f>MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7),POWER(2,-COLUMN(F4)+6+15))/POWER(2,-COLUMN(F4)+6+14),0),2)+IF($C7&lt;0,IF(G7=2,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:S7" si="18">MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7), POWER(2, -COLUMN(G4)+6+15))/POWER(2, -COLUMN(G4)+6+14), 0),2)+IF($C7&lt;0,IF(H7=2,1,0),0)</f>
+        <f t="shared" ref="G7:S7" si="18">MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7),POWER(2,-COLUMN(G4)+6+15))/POWER(2,-COLUMN(G4)+6+14),0),2)+IF($C7&lt;0,IF(H7=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="H7" s="5">
@@ -1091,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" ref="T7:T13" si="19">MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7), POWER(2, -COLUMN(T4)+6+15))/POWER(2, -COLUMN(T4)+6+14), 0),2)+IF($C7&lt;0,1,0)</f>
+        <f t="shared" ref="T7:T18" si="19">MOD(IF($C7&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C7),POWER(2,-COLUMN(T4)+6+15))/POWER(2,-COLUMN(T4)+6+14),0),2)+IF($C7&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="V7">
@@ -1159,79 +1643,79 @@
         <v>1</v>
       </c>
       <c r="AL7" t="str">
-        <f>IF(-32768&lt;=C7,IF(C7&lt;=32767,"+", "!"),"!")</f>
+        <f>IF(-32768&lt;=C7,IF(C7&lt;=32767,"+","!"),"!")</f>
         <v>+</v>
       </c>
       <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AP7" s="6" t="s">
-        <v>21</v>
+      <c r="AP7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ7">
         <v>2</v>
       </c>
-      <c r="AR7" s="6" t="s">
-        <v>15</v>
+      <c r="AR7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS7">
-        <f t="shared" ref="AS7:BG13" ca="1" si="21">OFFSET(U$7,$AO7-1,0)+OFFSET(U$7,$AQ7-1,0)+IF(AT7&gt;=2,1,0)</f>
+        <f ca="1" t="shared" ref="AS7:BG13" si="21">OFFSET(U$7,$AO7-1,0)+OFFSET(U$7,$AQ7-1,0)+IF(AT7&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AT7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AU7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AV7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AW7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AX7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AY7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AZ7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BA7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BB7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BC7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BD7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BE7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BF7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BG7">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BH7">
@@ -1247,63 +1731,63 @@
         <v>0</v>
       </c>
       <c r="BL7">
-        <f t="shared" ref="BL7:BZ7" ca="1" si="22">IF(MOD(AU7,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BL7:BZ7" si="22">IF(MOD(AU7,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BM7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BN7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BO7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BP7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BQ7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BR7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BS7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BT7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BU7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BV7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BW7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BX7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BY7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BZ7">
-        <f t="shared" ca="1" si="22"/>
+        <f ca="1" t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="CB7">
@@ -1339,19 +1823,19 @@
         <v>=</v>
       </c>
       <c r="CK7">
-        <f ca="1">-(IF(BK7=1,POWER(2,15),0)-SUMPRODUCT(BL7:BZ7,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" ref="CK7:CK13" si="23">-(IF(BK7=1,POWER(2,15),0)-SUMPRODUCT(BL7:BZ7,$AU$15:$BI$15))</f>
         <v>32181</v>
       </c>
-      <c r="CM7" t="str">
+      <c r="CM7" s="6" t="str">
         <f ca="1">IF(CG7=1,"Ответ неверный. При сложении чисел с одинаковыми знаками знак суммы не совпал с ними.",IF(OFFSET($V$7,$AO7-1,0)+OFFSET($V$7,$AQ7-1,0)=1,"Ответ верный. При сложении чисел с разными знаками результат всегда корректен.","Ответ верный. При сложении чисел с одинаковыми знаками знак суммы совпал со знаками чисел."))</f>
         <v>Ответ верный. При сложении чисел с одинаковыми знаками знак суммы совпал со знаками чисел.</v>
       </c>
     </row>
-    <row r="8" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:91">
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
         <f>C5</f>
         <v>21882</v>
       </c>
@@ -1360,63 +1844,63 @@
         <v>=</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:E18" si="23">IF(C8&lt;0,1,0)</f>
+        <f t="shared" ref="E8:E18" si="24">IF(C8&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:S8" si="24">MOD(IF($C8&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C8), POWER(2, -COLUMN(F5)+6+15))/POWER(2, -COLUMN(F5)+6+14), 0),2)+IF($C8&lt;0,IF(G8=2,1,0),0)</f>
+        <f t="shared" ref="F8:S8" si="25">MOD(IF($C8&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C8),POWER(2,-COLUMN(F5)+6+15))/POWER(2,-COLUMN(F5)+6+14),0),2)+IF($C8&lt;0,IF(G8=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="T8" s="5">
@@ -1424,328 +1908,328 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <f t="shared" ref="V8:V18" si="25">MOD(IF(E8&gt;0,1,0)+IF(AL8="+",0,1),2)</f>
+        <f t="shared" ref="V8:V18" si="26">MOD(IF(E8&gt;0,1,0)+IF(AL8="+",0,1),2)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f t="shared" ref="W8:W18" si="26">IF(F8&gt;0,1,0)</f>
+        <f t="shared" ref="W8:W18" si="27">IF(F8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="X8">
-        <f t="shared" ref="X8:X18" si="27">IF(G8&gt;0,1,0)</f>
+        <f t="shared" ref="X8:X18" si="28">IF(G8&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y18" si="28">IF(H8&gt;0,1,0)</f>
+        <f t="shared" ref="Y8:Y18" si="29">IF(H8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="Z8">
-        <f t="shared" ref="Z8:Z18" si="29">IF(I8&gt;0,1,0)</f>
+        <f t="shared" ref="Z8:Z18" si="30">IF(I8&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA18" si="30">IF(J8&gt;0,1,0)</f>
+        <f t="shared" ref="AA8:AA18" si="31">IF(J8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8:AB18" si="31">IF(K8&gt;0,1,0)</f>
+        <f t="shared" ref="AB8:AB18" si="32">IF(K8&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" ref="AC8:AC18" si="32">IF(L8&gt;0,1,0)</f>
+        <f t="shared" ref="AC8:AC18" si="33">IF(L8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AD8">
-        <f t="shared" ref="AD8:AD18" si="33">IF(M8&gt;0,1,0)</f>
+        <f t="shared" ref="AD8:AD18" si="34">IF(M8&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" ref="AE8:AE18" si="34">IF(N8&gt;0,1,0)</f>
+        <f t="shared" ref="AE8:AE18" si="35">IF(N8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8:AF18" si="35">IF(O8&gt;0,1,0)</f>
+        <f t="shared" ref="AF8:AF18" si="36">IF(O8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AG8">
-        <f t="shared" ref="AG8:AG18" si="36">IF(P8&gt;0,1,0)</f>
+        <f t="shared" ref="AG8:AG18" si="37">IF(P8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AH8">
-        <f t="shared" ref="AH8:AH18" si="37">IF(Q8&gt;0,1,0)</f>
+        <f t="shared" ref="AH8:AH18" si="38">IF(Q8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AI8">
-        <f t="shared" ref="AI8:AI18" si="38">IF(R8&gt;0,1,0)</f>
+        <f t="shared" ref="AI8:AI18" si="39">IF(R8&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AJ8">
-        <f t="shared" ref="AJ8:AJ18" si="39">IF(S8&gt;0,1,0)</f>
+        <f t="shared" ref="AJ8:AJ18" si="40">IF(S8&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AK8">
-        <f t="shared" ref="AK8:AK18" si="40">IF(T8=1,1,0)</f>
+        <f t="shared" ref="AK8:AK18" si="41">IF(T8=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="AL8" t="str">
-        <f t="shared" ref="AL8:AL18" si="41">IF(-32768&lt;=C8,IF(C8&lt;=32767,"+", "!"),"!")</f>
+        <f t="shared" ref="AL8:AL18" si="42">IF(-32768&lt;=C8,IF(C8&lt;=32767,"+","!"),"!")</f>
         <v>+</v>
       </c>
       <c r="AO8">
         <v>2</v>
       </c>
-      <c r="AP8" s="6" t="s">
-        <v>21</v>
+      <c r="AP8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ8">
         <v>3</v>
       </c>
-      <c r="AR8" s="6" t="s">
-        <v>15</v>
+      <c r="AR8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AT8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AU8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AV8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AW8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AX8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AY8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AZ8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BA8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BB8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BC8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BD8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BE8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BF8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BG8">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BH8">
-        <f t="shared" ref="BH8:BH13" ca="1" si="42">OFFSET(AJ$7,$AO8-1,0)+OFFSET(AJ$7,$AQ8-1,0)+IF(BI8&gt;=2,1,0)</f>
+        <f ca="1" t="shared" ref="BH8:BH13" si="43">OFFSET(AJ$7,$AO8-1,0)+OFFSET(AJ$7,$AQ8-1,0)+IF(BI8&gt;=2,1,0)</f>
         <v>1</v>
       </c>
       <c r="BI8">
-        <f t="shared" ref="BI8:BI13" ca="1" si="43">OFFSET(AK$7,AO8-1,0)+OFFSET(AK$7,AQ8-1,0)</f>
+        <f ca="1" t="shared" ref="BI8:BI13" si="44">OFFSET(AK$7,AO8-1,0)+OFFSET(AK$7,AQ8-1,0)</f>
         <v>1</v>
       </c>
       <c r="BK8">
-        <f t="shared" ref="BK8:BK13" ca="1" si="44">IF(MOD(AT8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BK8:BK13" si="45">IF(MOD(AT8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BL8">
-        <f t="shared" ref="BL8:BL13" ca="1" si="45">IF(MOD(AU8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BL8:BL13" si="46">IF(MOD(AU8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BM8">
-        <f t="shared" ref="BM8:BM13" ca="1" si="46">IF(MOD(AV8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BM8:BM13" si="47">IF(MOD(AV8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BN8">
-        <f t="shared" ref="BN8:BN13" ca="1" si="47">IF(MOD(AW8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BN8:BN13" si="48">IF(MOD(AW8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BO8">
-        <f t="shared" ref="BO8:BO13" ca="1" si="48">IF(MOD(AX8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BO8:BO13" si="49">IF(MOD(AX8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BP8">
-        <f t="shared" ref="BP8:BP13" ca="1" si="49">IF(MOD(AY8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BP8:BP13" si="50">IF(MOD(AY8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BQ8">
-        <f t="shared" ref="BQ8:BQ13" ca="1" si="50">IF(MOD(AZ8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BQ8:BQ13" si="51">IF(MOD(AZ8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BR8">
-        <f t="shared" ref="BR8:BR13" ca="1" si="51">IF(MOD(BA8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BR8:BR13" si="52">IF(MOD(BA8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BS8">
-        <f t="shared" ref="BS8:BS13" ca="1" si="52">IF(MOD(BB8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BS8:BS13" si="53">IF(MOD(BB8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BT8">
-        <f t="shared" ref="BT8:BT13" ca="1" si="53">IF(MOD(BC8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BT8:BT13" si="54">IF(MOD(BC8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BU8">
-        <f t="shared" ref="BU8:BU13" ca="1" si="54">IF(MOD(BD8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BU8:BU13" si="55">IF(MOD(BD8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BV8">
-        <f t="shared" ref="BV8:BV13" ca="1" si="55">IF(MOD(BE8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BV8:BV13" si="56">IF(MOD(BE8,2)=0,0,1)</f>
         <v>0</v>
       </c>
       <c r="BW8">
-        <f t="shared" ref="BW8:BW13" ca="1" si="56">IF(MOD(BF8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BW8:BW13" si="57">IF(MOD(BF8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BX8">
-        <f t="shared" ref="BX8:BX13" ca="1" si="57">IF(MOD(BG8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BX8:BX13" si="58">IF(MOD(BG8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BY8">
-        <f t="shared" ref="BY8:BY13" ca="1" si="58">IF(MOD(BH8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BY8:BY13" si="59">IF(MOD(BH8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="BZ8">
-        <f t="shared" ref="BZ8:BZ13" ca="1" si="59">IF(MOD(BI8,2)=0,0,1)</f>
+        <f ca="1" t="shared" ref="BZ8:BZ13" si="60">IF(MOD(BI8,2)=0,0,1)</f>
         <v>1</v>
       </c>
       <c r="CB8">
-        <f t="shared" ref="CB8:CB13" ca="1" si="60">AS8</f>
+        <f ca="1" t="shared" ref="CB8:CB13" si="61">AS8</f>
         <v>0</v>
       </c>
       <c r="CC8">
-        <f t="shared" ref="CC8:CC13" ca="1" si="61">MOD(MOD(SUM(BS8:BZ8),2)+1,2)</f>
+        <f ca="1" t="shared" ref="CC8:CC13" si="62">MOD(MOD(SUM(BS8:BZ8),2)+1,2)</f>
         <v>0</v>
       </c>
       <c r="CD8">
-        <f t="shared" ref="CD8:CD13" ca="1" si="62">IF(BF8&gt;=2,1,0)</f>
+        <f ca="1" t="shared" ref="CD8:CD13" si="63">IF(BF8&gt;=2,1,0)</f>
         <v>0</v>
       </c>
       <c r="CE8">
-        <f t="shared" ref="CE8:CE13" ca="1" si="63">IF(SUM(BK8:BZ8)&gt;0,0,1)</f>
+        <f ca="1" t="shared" ref="CE8:CE13" si="64">IF(SUM(BK8:BZ8)&gt;0,0,1)</f>
         <v>0</v>
       </c>
       <c r="CF8">
-        <f t="shared" ref="CF8:CF13" ca="1" si="64">BK8</f>
+        <f ca="1" t="shared" ref="CF8:CF13" si="65">BK8</f>
         <v>1</v>
       </c>
       <c r="CG8">
-        <f t="shared" ref="CG8:CG13" ca="1" si="65">IF(OFFSET($V$7,$AO8-1,0)+OFFSET($V$7,$AQ8-1,0)=1,0,IF(OFFSET($V$7,$AO8-1,0)=BK8,0,1))</f>
+        <f ca="1" t="shared" ref="CG8:CG13" si="66">IF(OFFSET($V$7,$AO8-1,0)+OFFSET($V$7,$AQ8-1,0)=1,0,IF(OFFSET($V$7,$AO8-1,0)=BK8,0,1))</f>
         <v>1</v>
       </c>
       <c r="CI8">
-        <f t="shared" ref="CI8:CI13" ca="1" si="66">OFFSET(C$7,$AO8-1,0)+OFFSET(C$7,$AQ8-1,0)</f>
+        <f ca="1" t="shared" ref="CI8:CI13" si="67">OFFSET(C$7,$AO8-1,0)+OFFSET(C$7,$AQ8-1,0)</f>
         <v>54063</v>
       </c>
       <c r="CJ8" t="str">
-        <f t="shared" ref="CJ8:CJ13" ca="1" si="67">IF(CG8=0,"=","!=")</f>
+        <f ca="1" t="shared" ref="CJ8:CJ13" si="68">IF(CG8=0,"=","!=")</f>
         <v>!=</v>
       </c>
       <c r="CK8">
-        <f ca="1">-(IF(BK8=1,POWER(2,15),0)-SUMPRODUCT(BL8:BZ8,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>-11473</v>
       </c>
-      <c r="CM8" t="str">
-        <f t="shared" ref="CM8:CM13" ca="1" si="68">IF(CG8=1,"Ответ неверный. При сложении чисел с одинаковыми знаками знак суммы не совпал с ними.",IF(OFFSET($V$7,$AO8-1,0)+OFFSET($V$7,$AQ8-1,0)=1,"Ответ верный. При сложении чисел с разными знаками результат всегда корректен.","Ответ верный. При сложении чисел с одинаковыми знаками знак суммы совпал со знаками чисел."))</f>
+      <c r="CM8" s="6" t="str">
+        <f ca="1" t="shared" ref="CM8:CM13" si="69">IF(CG8=1,"Ответ неверный. При сложении чисел с одинаковыми знаками знак суммы не совпал с ними.",IF(OFFSET($V$7,$AO8-1,0)+OFFSET($V$7,$AQ8-1,0)=1,"Ответ верный. При сложении чисел с разными знаками результат всегда корректен.","Ответ верный. При сложении чисел с одинаковыми знаками знак суммы совпал со знаками чисел."))</f>
         <v>Ответ неверный. При сложении чисел с одинаковыми знаками знак суммы не совпал с ними.</v>
       </c>
     </row>
-    <row r="9" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:91">
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
         <f>C4+C5</f>
         <v>32181</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D18" si="69">D8</f>
+        <f t="shared" ref="D9:D18" si="70">D8</f>
         <v>=</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:S9" si="70">MOD(IF($C9&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C9), POWER(2, -COLUMN(F6)+6+15))/POWER(2, -COLUMN(F6)+6+14), 0),2)+IF($C9&lt;0,IF(G9=2,1,0),0)</f>
+        <f t="shared" ref="F9:S9" si="71">MOD(IF($C9&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C9),POWER(2,-COLUMN(F6)+6+15))/POWER(2,-COLUMN(F6)+6+14),0),2)+IF($C9&lt;0,IF(G9=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="T9" s="5">
@@ -1753,328 +2237,328 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="X9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
       <c r="AO9">
         <v>2</v>
       </c>
-      <c r="AP9" s="6" t="s">
-        <v>21</v>
+      <c r="AP9" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ9">
         <v>7</v>
       </c>
-      <c r="AR9" s="6" t="s">
-        <v>15</v>
+      <c r="AR9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AT9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AU9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AV9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AW9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AX9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AY9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AZ9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BA9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BB9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BC9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BD9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BE9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BF9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BG9">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BH9">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1" t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="BI9">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1" t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="BK9">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1" t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BL9">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1" t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BM9">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1" t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BN9">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1" t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BO9">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1" t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="BP9">
-        <f t="shared" ca="1" si="49"/>
+        <f ca="1" t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="BQ9">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1" t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BR9">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1" t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="BS9">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1" t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BT9">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1" t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="BU9">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1" t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BV9">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1" t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BW9">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1" t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="BX9">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1" t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="BY9">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1" t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="BZ9">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1" t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="CB9">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1" t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="CC9">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1" t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="CD9">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1" t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="CE9">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1" t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CF9">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1" t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="CG9">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1" t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CI9">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1" t="shared" si="67"/>
         <v>11583</v>
       </c>
       <c r="CJ9" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1" t="shared" si="68"/>
         <v>=</v>
       </c>
       <c r="CK9">
-        <f ca="1">-(IF(BK9=1,POWER(2,15),0)-SUMPRODUCT(BL9:BZ9,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>11583</v>
       </c>
-      <c r="CM9" t="str">
-        <f t="shared" ca="1" si="68"/>
+      <c r="CM9" s="6" t="str">
+        <f ca="1" t="shared" si="69"/>
         <v>Ответ верный. При сложении чисел с разными знаками результат всегда корректен.</v>
       </c>
     </row>
-    <row r="10" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:91">
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
         <f>C4+C5+C5</f>
         <v>54063</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:S10" si="71">MOD(IF($C10&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C10), POWER(2, -COLUMN(F7)+6+15))/POWER(2, -COLUMN(F7)+6+14), 0),2)+IF($C10&lt;0,IF(G10=2,1,0),0)</f>
+        <f t="shared" ref="F10:S10" si="72">MOD(IF($C10&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C10),POWER(2,-COLUMN(F7)+6+15))/POWER(2,-COLUMN(F7)+6+14),0),2)+IF($C10&lt;0,IF(G10=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="T10" s="5">
@@ -2082,328 +2566,328 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="X10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL10" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>!</v>
       </c>
       <c r="AO10">
         <v>7</v>
       </c>
-      <c r="AP10" s="6" t="s">
-        <v>21</v>
+      <c r="AP10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ10">
         <v>8</v>
       </c>
-      <c r="AR10" s="6" t="s">
-        <v>15</v>
+      <c r="AR10" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AT10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AU10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AV10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AW10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AX10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AY10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AZ10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BA10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BB10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BC10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BF10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BG10">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BH10">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1" t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="BI10">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1" t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="BK10">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1" t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="BL10">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1" t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BM10">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1" t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BN10">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1" t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BO10">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1" t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BP10">
-        <f t="shared" ca="1" si="49"/>
+        <f ca="1" t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="BQ10">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1" t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="BR10">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1" t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BS10">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1" t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BT10">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1" t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="BU10">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1" t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BV10">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1" t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BW10">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1" t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="BX10">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1" t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BY10">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1" t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="BZ10">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1" t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="CB10">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1" t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="CC10">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1" t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="CD10">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1" t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="CE10">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1" t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CF10">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1" t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="CG10">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1" t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CI10">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1" t="shared" si="67"/>
         <v>-32181</v>
       </c>
       <c r="CJ10" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1" t="shared" si="68"/>
         <v>=</v>
       </c>
       <c r="CK10">
-        <f ca="1">-(IF(BK10=1,POWER(2,15),0)-SUMPRODUCT(BL10:BZ10,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>-32181</v>
       </c>
-      <c r="CM10" t="str">
-        <f t="shared" ca="1" si="68"/>
+      <c r="CM10" s="6" t="str">
+        <f ca="1" t="shared" si="69"/>
         <v>Ответ верный. При сложении чисел с одинаковыми знаками знак суммы совпал со знаками чисел.</v>
       </c>
     </row>
-    <row r="11" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:91">
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
         <f>C5-C4</f>
         <v>11583</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:S11" si="72">MOD(IF($C11&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C11), POWER(2, -COLUMN(F8)+6+15))/POWER(2, -COLUMN(F8)+6+14), 0),2)+IF($C11&lt;0,IF(G11=2,1,0),0)</f>
+        <f t="shared" ref="F11:S11" si="73">MOD(IF($C11&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C11),POWER(2,-COLUMN(F8)+6+15))/POWER(2,-COLUMN(F8)+6+14),0),2)+IF($C11&lt;0,IF(G11=2,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="T11" s="5">
@@ -2411,328 +2895,328 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL11" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
       <c r="AO11">
         <v>8</v>
       </c>
-      <c r="AP11" s="6" t="s">
-        <v>21</v>
+      <c r="AP11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ11">
         <v>9</v>
       </c>
-      <c r="AR11" s="6" t="s">
-        <v>15</v>
+      <c r="AR11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AT11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AU11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AV11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AW11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AX11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AY11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AZ11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BA11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BC11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BE11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BF11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BG11">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BH11">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1" t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="BI11">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1" t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="BK11">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1" t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BL11">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1" t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BM11">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1" t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BN11">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1" t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BO11">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1" t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="BP11">
-        <f t="shared" ca="1" si="49"/>
+        <f ca="1" t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="BQ11">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1" t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BR11">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1" t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BS11">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1" t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="BT11">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1" t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="BU11">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1" t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BV11">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1" t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BW11">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1" t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BX11">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1" t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BY11">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1" t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BZ11">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1" t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="CB11">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1" t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="CC11">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1" t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="CD11">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1" t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="CE11">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1" t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CF11">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1" t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="CG11">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1" t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="CI11">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1" t="shared" si="67"/>
         <v>-54063</v>
       </c>
       <c r="CJ11" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1" t="shared" si="68"/>
         <v>!=</v>
       </c>
       <c r="CK11">
-        <f ca="1">-(IF(BK11=1,POWER(2,15),0)-SUMPRODUCT(BL11:BZ11,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>11473</v>
       </c>
-      <c r="CM11" t="str">
-        <f t="shared" ca="1" si="68"/>
+      <c r="CM11" s="6" t="str">
+        <f ca="1" t="shared" si="69"/>
         <v>Ответ неверный. При сложении чисел с одинаковыми знаками знак суммы не совпал с ними.</v>
       </c>
     </row>
-    <row r="12" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:91">
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
         <f>65536-C10</f>
         <v>11473</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:S12" si="73">MOD(IF($C12&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C12), POWER(2, -COLUMN(F9)+6+15))/POWER(2, -COLUMN(F9)+6+14), 0),2)+IF($C12&lt;0,IF(G12=2,1,0),0)</f>
+        <f t="shared" ref="F12:S12" si="74">MOD(IF($C12&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C12),POWER(2,-COLUMN(F9)+6+15))/POWER(2,-COLUMN(F9)+6+14),0),2)+IF($C12&lt;0,IF(G12=2,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="T12" s="5">
@@ -2740,328 +3224,328 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL12" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
       <c r="AO12">
         <v>1</v>
       </c>
-      <c r="AP12" s="6" t="s">
-        <v>21</v>
+      <c r="AP12" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ12">
         <v>8</v>
       </c>
-      <c r="AR12" s="6" t="s">
-        <v>15</v>
+      <c r="AR12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AT12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AU12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AV12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AW12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AX12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AY12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AZ12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BA12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BC12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BE12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BF12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BG12">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BH12">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1" t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="BI12">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1" t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="BK12">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1" t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="BL12">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1" t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BM12">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1" t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BN12">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1" t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="BO12">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1" t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BP12">
-        <f t="shared" ca="1" si="49"/>
+        <f ca="1" t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="BQ12">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1" t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="BR12">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1" t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BS12">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1" t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="BT12">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1" t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="BU12">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1" t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BV12">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1" t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="BW12">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1" t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BX12">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1" t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BY12">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1" t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="BZ12">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1" t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="CB12">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1" t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CC12">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1" t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="CD12">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1" t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="CE12">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1" t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CF12">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1" t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="CG12">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1" t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CI12">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1" t="shared" si="67"/>
         <v>-11583</v>
       </c>
       <c r="CJ12" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1" t="shared" si="68"/>
         <v>=</v>
       </c>
       <c r="CK12">
-        <f ca="1">-(IF(BK12=1,POWER(2,15),0)-SUMPRODUCT(BL12:BZ12,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>-11583</v>
       </c>
-      <c r="CM12" t="str">
-        <f t="shared" ca="1" si="68"/>
+      <c r="CM12" s="6" t="str">
+        <f ca="1" t="shared" si="69"/>
         <v>Ответ верный. При сложении чисел с разными знаками результат всегда корректен.</v>
       </c>
     </row>
-    <row r="13" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:91">
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:C18" si="74">-C7</f>
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:C18" si="75">-C7</f>
         <v>-10299</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" ref="F13:S13" si="75">MOD(IF($C13&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C13), POWER(2, -COLUMN(F10)+6+15))/POWER(2, -COLUMN(F10)+6+14), 0),2)+IF($C13&lt;0,IF(G13=2,1,0),0)</f>
+        <f t="shared" ref="F13:S13" si="76">MOD(IF($C13&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C13),POWER(2,-COLUMN(F10)+6+15))/POWER(2,-COLUMN(F10)+6+14),0),2)+IF($C13&lt;0,IF(G13=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="T13" s="5">
@@ -3069,1080 +3553,1080 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="X13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL13" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
       <c r="AO13">
         <v>11</v>
       </c>
-      <c r="AP13" s="6" t="s">
-        <v>21</v>
+      <c r="AP13" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="AQ13">
         <v>3</v>
       </c>
-      <c r="AR13" s="6" t="s">
-        <v>15</v>
+      <c r="AR13" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="AS13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AT13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AU13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AV13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AW13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AX13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AY13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AZ13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BA13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BB13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BC13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BE13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BF13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BG13">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1" t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BH13">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1" t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="BI13">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1" t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="BK13">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1" t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BL13">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1" t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BM13">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1" t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="BN13">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1" t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="BO13">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1" t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BP13">
-        <f t="shared" ca="1" si="49"/>
+        <f ca="1" t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="BQ13">
-        <f t="shared" ca="1" si="50"/>
+        <f ca="1" t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BR13">
-        <f t="shared" ca="1" si="51"/>
+        <f ca="1" t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BS13">
-        <f t="shared" ca="1" si="52"/>
+        <f ca="1" t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="BT13">
-        <f t="shared" ca="1" si="53"/>
+        <f ca="1" t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="BU13">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1" t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BV13">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1" t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BW13">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1" t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="BX13">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1" t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="BY13">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1" t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="BZ13">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1" t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CB13">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1" t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="CC13">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1" t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="CD13">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1" t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="CE13">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1" t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="CF13">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1" t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="CG13">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1" t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="CI13">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1" t="shared" si="67"/>
         <v>20598</v>
       </c>
       <c r="CJ13" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f ca="1" t="shared" si="68"/>
         <v>=</v>
       </c>
       <c r="CK13">
-        <f ca="1">-(IF(BK13=1,POWER(2,15),0)-SUMPRODUCT(BL13:BZ13,$AU$15:$BI$15))</f>
+        <f ca="1" t="shared" si="23"/>
         <v>20598</v>
       </c>
-      <c r="CM13" t="str">
-        <f t="shared" ca="1" si="68"/>
+      <c r="CM13" s="6" t="str">
+        <f ca="1" t="shared" si="69"/>
         <v>Ответ верный. При сложении чисел с разными знаками результат всегда корректен.</v>
       </c>
     </row>
-    <row r="14" spans="2:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38">
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="74"/>
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="75"/>
         <v>-21882</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:S14" si="76">MOD(IF($C14&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C14), POWER(2, -COLUMN(F11)+6+15))/POWER(2, -COLUMN(F11)+6+14), 0),2)+IF($C14&lt;0,IF(G14=2,1,0),0)</f>
+        <f t="shared" ref="F14:S14" si="77">MOD(IF($C14&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C14),POWER(2,-COLUMN(F11)+6+15))/POWER(2,-COLUMN(F11)+6+14),0),2)+IF($C14&lt;0,IF(G14=2,1,0),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="T14" s="5">
-        <f>MOD(IF($C14&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C14), POWER(2, -COLUMN(T11)+6+15))/POWER(2, -COLUMN(T11)+6+14), 0),2)+IF($C14&lt;0,1,0)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="W14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="42"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="15" spans="2:61">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="75"/>
+        <v>-32181</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="70"/>
+        <v>=</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:S15" si="78">MOD(IF($C15&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C15),POWER(2,-COLUMN(F12)+6+15))/POWER(2,-COLUMN(F12)+6+14),0),2)+IF($C15&lt;0,IF(G15=2,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="Y15">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AA15">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AF14">
+      <c r="AE15">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AH14">
+      <c r="AG15">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AI14">
+      <c r="AH15">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="AJ14">
+      <c r="AI15">
         <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
+      <c r="AU15">
+        <f t="shared" ref="AU15:BH15" si="79">AV15*2</f>
+        <v>16384</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="79"/>
+        <v>8192</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="79"/>
+        <v>4096</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="79"/>
+        <v>2048</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="79"/>
+        <v>1024</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="79"/>
+        <v>512</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="79"/>
+        <v>256</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="79"/>
+        <v>128</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="79"/>
+        <v>64</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="79"/>
+        <v>32</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="79"/>
+        <v>16</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="79"/>
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="74"/>
-        <v>-32181</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="69"/>
+    <row r="16" spans="2:38">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="75"/>
+        <v>-54063</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="70"/>
         <v>=</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" ref="F15:S15" si="77">MOD(IF($C15&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C15), POWER(2, -COLUMN(F12)+6+15))/POWER(2, -COLUMN(F12)+6+14), 0),2)+IF($C15&lt;0,IF(G15=2,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <f t="shared" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="5">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <f t="shared" si="77"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="5">
-        <f>MOD(IF($C15&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C15), POWER(2, -COLUMN(T12)+6+15))/POWER(2, -COLUMN(T12)+6+14), 0),2)+IF($C15&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="W15">
+      <c r="E16" s="5">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:S16" si="80">MOD(IF($C16&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C16),POWER(2,-COLUMN(F13)+6+15))/POWER(2,-COLUMN(F13)+6+14),0),2)+IF($C16&lt;0,IF(G16=2,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="W16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="X16">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="Y16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="Z16">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="AC15">
+      <c r="AB16">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AC16">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AE15">
+      <c r="AD16">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="AF15">
+      <c r="AE16">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AH15">
+      <c r="AG16">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="AI15">
+      <c r="AH16">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AJ15">
+      <c r="AI16">
         <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="AL15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="42"/>
+        <v>!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="75"/>
+        <v>-11583</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="70"/>
+        <v>=</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" ref="F17:S17" si="81">MOD(IF($C17&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C17),POWER(2,-COLUMN(F14)+6+15))/POWER(2,-COLUMN(F14)+6+14),0),2)+IF($C17&lt;0,IF(G17=2,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="42"/>
         <v>+</v>
       </c>
-      <c r="AU15">
-        <f>AV15*2</f>
-        <v>16384</v>
-      </c>
-      <c r="AV15">
-        <f>AW15*2</f>
-        <v>8192</v>
-      </c>
-      <c r="AW15">
-        <f>AX15*2</f>
-        <v>4096</v>
-      </c>
-      <c r="AX15">
-        <f>AY15*2</f>
-        <v>2048</v>
-      </c>
-      <c r="AY15">
-        <f>AZ15*2</f>
-        <v>1024</v>
-      </c>
-      <c r="AZ15">
-        <f>BA15*2</f>
-        <v>512</v>
-      </c>
-      <c r="BA15">
-        <f>BB15*2</f>
-        <v>256</v>
-      </c>
-      <c r="BB15">
-        <f>BC15*2</f>
-        <v>128</v>
-      </c>
-      <c r="BC15">
-        <f>BD15*2</f>
-        <v>64</v>
-      </c>
-      <c r="BD15">
-        <f>BE15*2</f>
+    </row>
+    <row r="18" spans="2:38">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="75"/>
+        <v>-11473</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="70"/>
+        <v>=</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:S18" si="82">MOD(IF($C18&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C18),POWER(2,-COLUMN(F15)+6+15))/POWER(2,-COLUMN(F15)+6+14),0),2)+IF($C18&lt;0,IF(G18=2,1,0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="42"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="BE15">
-        <f>BF15*2</f>
-        <v>16</v>
-      </c>
-      <c r="BF15">
-        <f>BG15*2</f>
-        <v>8</v>
-      </c>
-      <c r="BG15">
-        <f>BH15*2</f>
-        <v>4</v>
-      </c>
-      <c r="BH15">
-        <f>BI15*2</f>
-        <v>2</v>
-      </c>
-      <c r="BI15">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="2:91" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="74"/>
-        <v>-54063</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="69"/>
-        <v>=</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:S16" si="78">MOD(IF($C16&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C16), POWER(2, -COLUMN(F13)+6+15))/POWER(2, -COLUMN(F13)+6+14), 0),2)+IF($C16&lt;0,IF(G16=2,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <f>MOD(IF($C16&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C16), POWER(2, -COLUMN(T13)+6+15))/POWER(2, -COLUMN(T13)+6+14), 0),2)+IF($C16&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="AL16" t="str">
-        <f t="shared" si="41"/>
-        <v>!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="74"/>
-        <v>-11583</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="69"/>
-        <v>=</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" ref="F17:S17" si="79">MOD(IF($C17&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C17), POWER(2, -COLUMN(F14)+6+15))/POWER(2, -COLUMN(F14)+6+14), 0),2)+IF($C17&lt;0,IF(G17=2,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="5">
-        <f>MOD(IF($C17&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C17), POWER(2, -COLUMN(T14)+6+15))/POWER(2, -COLUMN(T14)+6+14), 0),2)+IF($C17&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="AL17" t="str">
-        <f t="shared" si="41"/>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="74"/>
-        <v>-11473</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="69"/>
-        <v>=</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:S18" si="80">MOD(IF($C18&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C18), POWER(2, -COLUMN(F15)+6+15))/POWER(2, -COLUMN(F15)+6+14), 0),2)+IF($C18&lt;0,IF(G18=2,1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="5">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="5">
-        <f>MOD(IF($C18&lt;0,1,0)+ROUNDDOWN(MOD(ABS($C18), POWER(2, -COLUMN(T15)+6+15))/POWER(2, -COLUMN(T15)+6+14), 0),2)+IF($C18&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="AL18" t="str">
-        <f t="shared" si="41"/>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7">
       <c r="G34" s="5">
-        <f>ROUNDDOWN(MOD(ABS($C34), POWER(2, -COLUMN(G32)+6+15))/POWER(2, -COLUMN(G32)+6+14), 0)</f>
+        <f>ROUNDDOWN(MOD(ABS($C34),POWER(2,-COLUMN(G32)+6+15))/POWER(2,-COLUMN(G32)+6+14),0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AL7:AL18">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>AL7="+"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AL7="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG7:CG13">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>CG7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>CG7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7:AK10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>V7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>V7=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CПшеничников Артём Дмитриевич
 Лабораторная работа 5&amp;RВариант 4</oddHeader>
